--- a/xlsx/大英百科全书_intext.xlsx
+++ b/xlsx/大英百科全书_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="214">
   <si>
     <t>大英百科全书</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E5%99%A8%E7%BF%BB%E8%AD%AF</t>
   </si>
   <si>
-    <t>機器翻譯</t>
-  </si>
-  <si>
-    <t>政策_政策_維基百科_大英百科全书</t>
+    <t>机器翻译</t>
+  </si>
+  <si>
+    <t>政策_政策_维基百科_大英百科全书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
@@ -41,13 +41,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>語言</t>
+    <t>语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%AF%AD</t>
@@ -77,13 +77,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
+    <t>英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ABC%E7%99%BE%E7%A7%91%E5%85%A8%E6%9B%B8</t>
   </si>
   <si>
-    <t>ABC百科全書</t>
+    <t>ABC百科全书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E4%B8%81%E5%A0%A1</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英國英語</t>
+    <t>英国英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%BF%E5%91%8A</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%B4%E6%97%8F</t>
   </si>
   <si>
-    <t>貴族</t>
+    <t>贵族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%A1%9E%E5%A1%94%E7%9F%B3%E7%A2%91</t>
   </si>
   <si>
-    <t>羅塞塔石碑</t>
+    <t>罗塞塔石碑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%8F%8A%E8%B1%A1%E5%BD%A2%E6%96%87</t>
@@ -233,13 +233,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E7%91%AA%E6%96%AF%C2%B7%E4%BA%A8%E5%88%A9%C2%B7%E8%B5%AB%E8%83%A5%E9%BB%8E</t>
   </si>
   <si>
-    <t>湯瑪斯·亨利·赫胥黎</t>
+    <t>汤玛斯·亨利·赫胥黎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%BC%97%E9%9B%B7%E5%BE%B7%C2%B7%E8%AB%BE%E6%80%9D%C2%B7%E6%87%B7%E7%89%B9%E9%BB%91%E5%BE%B7</t>
   </si>
   <si>
-    <t>阿爾弗雷德·諾思·懷特黑德</t>
+    <t>阿尔弗雷德·诺思·怀特黑德</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Algernon_Charles_Swinburne</t>
@@ -263,9 +263,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AF%BA%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
@@ -311,7 +308,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E9%87%8C%E7%88%BE%E7%99%BE%E7%A7%91%E5%85%A8%E6%9B%B8</t>
   </si>
   <si>
-    <t>科里爾百科全書</t>
+    <t>科里尔百科全书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Encarta</t>
@@ -341,7 +338,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%A0%E6%B5%81%E5%87%BA%E7%89%88%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>遠流出版公司</t>
+    <t>远流出版公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%90%9C%E7%B4%A2%E5%BC%95%E6%93%8E</t>
@@ -371,13 +368,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6_(%E9%9B%9C%E8%AA%8C)</t>
   </si>
   <si>
-    <t>自然 (雜誌)</t>
+    <t>自然 (杂志)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%BE%8E%E7%99%BE%E7%A7%91%E5%85%A8%E6%9B%B8</t>
   </si>
   <si>
-    <t>大美百科全書</t>
+    <t>大美百科全书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%B0%94%E9%A1%BF%C2%B7%E5%BC%97%E9%87%8C%E5%BE%B7%E6%9B%BC</t>
@@ -401,19 +398,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E7%A7%91%E7%B0%A1%E7%B7%A8</t>
   </si>
   <si>
-    <t>百科簡編</t>
+    <t>百科简编</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
   </si>
   <si>
-    <t>台灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%A0%E6%B5%81%E5%87%BA%E7%89%88%E7%A4%BE</t>
   </si>
   <si>
-    <t>遠流出版社</t>
+    <t>远流出版社</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E6%97%B6%E6%8A%A5</t>
@@ -491,37 +488,37 @@
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1</t>
   </si>
   <si>
-    <t>熱</t>
+    <t>热</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%89%8E%E7%88%BE%E7%8E%8B%E6%9C%9D</t>
   </si>
   <si>
-    <t>卡扎爾王朝</t>
+    <t>卡扎尔王朝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E7%89%B9%E8%B5%AB-%E9%98%BF%E9%87%8C%E6%B2%99%C2%B7%E5%8D%A1%E6%89%8E%E7%88%BE</t>
   </si>
   <si>
-    <t>法特赫-阿里沙·卡扎爾</t>
+    <t>法特赫-阿里沙·卡扎尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%95%AD%E4%BC%AF%E7%B4%8D</t>
   </si>
   <si>
-    <t>蕭伯納</t>
+    <t>萧伯纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E7%90%86%E5%AD%B8%E5%AE%B6</t>
   </si>
   <si>
-    <t>物理學家</t>
+    <t>物理学家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%9F%A5%E5%BE%B7%C2%B7%E8%B2%BB%E6%9B%BC</t>
   </si>
   <si>
-    <t>理查德·費曼</t>
+    <t>理查德·费曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%91%9E%E6%96%AF%E7%89%B9</t>
@@ -533,19 +530,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E5%AD%90%E9%9B%9C%E8%AA%8C</t>
   </si>
   <si>
-    <t>君子雜誌</t>
+    <t>君子杂志</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%AB%BE%E5%BE%B7%C2%B7%E5%8F%B2%E8%92%82%E8%8A%AC%C2%B7%E8%B3%88%E5%90%84%E5%B8%83%E6%96%AF</t>
   </si>
   <si>
-    <t>阿諾德·史蒂芬·賈各布斯</t>
+    <t>阿诺德·史蒂芬·贾各布斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E9%9B%B2%E4%BA%94</t>
   </si>
   <si>
-    <t>王雲五</t>
+    <t>王云五</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E9%80%82</t>
@@ -629,7 +626,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -647,7 +644,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -659,7 +656,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -2190,7 +2187,7 @@
         <v>81</v>
       </c>
       <c r="F41" t="s">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="G41" t="n">
         <v>5</v>
@@ -2216,10 +2213,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2245,10 +2242,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>2</v>
@@ -2274,10 +2271,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2303,10 +2300,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2332,10 +2329,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2361,10 +2358,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>3</v>
@@ -2390,10 +2387,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>5</v>
@@ -2419,10 +2416,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2448,10 +2445,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>3</v>
@@ -2477,10 +2474,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2506,10 +2503,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2535,10 +2532,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>3</v>
@@ -2564,10 +2561,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2593,10 +2590,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2622,10 +2619,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2651,10 +2648,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2680,10 +2677,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>11</v>
@@ -2709,10 +2706,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>5</v>
@@ -2738,10 +2735,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2767,10 +2764,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2796,10 +2793,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2825,10 +2822,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -2854,10 +2851,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2883,10 +2880,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>3</v>
@@ -2912,10 +2909,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2941,10 +2938,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2970,10 +2967,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2999,10 +2996,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3028,10 +3025,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3057,10 +3054,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3086,10 +3083,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
         <v>143</v>
-      </c>
-      <c r="F72" t="s">
-        <v>144</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3115,10 +3112,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" t="s">
         <v>145</v>
-      </c>
-      <c r="F73" t="s">
-        <v>146</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3144,10 +3141,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3173,10 +3170,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" t="s">
         <v>149</v>
-      </c>
-      <c r="F75" t="s">
-        <v>150</v>
       </c>
       <c r="G75" t="n">
         <v>3</v>
@@ -3202,10 +3199,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" t="s">
         <v>151</v>
-      </c>
-      <c r="F76" t="s">
-        <v>152</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3231,10 +3228,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77" t="s">
         <v>153</v>
-      </c>
-      <c r="F77" t="s">
-        <v>154</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3260,10 +3257,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78" t="s">
         <v>155</v>
-      </c>
-      <c r="F78" t="s">
-        <v>156</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3289,10 +3286,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79" t="s">
         <v>157</v>
-      </c>
-      <c r="F79" t="s">
-        <v>158</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3318,10 +3315,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>158</v>
+      </c>
+      <c r="F80" t="s">
         <v>159</v>
-      </c>
-      <c r="F80" t="s">
-        <v>160</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3347,10 +3344,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>160</v>
+      </c>
+      <c r="F81" t="s">
         <v>161</v>
-      </c>
-      <c r="F81" t="s">
-        <v>162</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3376,10 +3373,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>162</v>
+      </c>
+      <c r="F82" t="s">
         <v>163</v>
-      </c>
-      <c r="F82" t="s">
-        <v>164</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3405,10 +3402,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>164</v>
+      </c>
+      <c r="F83" t="s">
         <v>165</v>
-      </c>
-      <c r="F83" t="s">
-        <v>166</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3434,10 +3431,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>166</v>
+      </c>
+      <c r="F84" t="s">
         <v>167</v>
-      </c>
-      <c r="F84" t="s">
-        <v>168</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3463,10 +3460,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>168</v>
+      </c>
+      <c r="F85" t="s">
         <v>169</v>
-      </c>
-      <c r="F85" t="s">
-        <v>170</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3492,10 +3489,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>170</v>
+      </c>
+      <c r="F86" t="s">
         <v>171</v>
-      </c>
-      <c r="F86" t="s">
-        <v>172</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3521,10 +3518,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>172</v>
+      </c>
+      <c r="F87" t="s">
         <v>173</v>
-      </c>
-      <c r="F87" t="s">
-        <v>174</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3550,10 +3547,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>174</v>
+      </c>
+      <c r="F88" t="s">
         <v>175</v>
-      </c>
-      <c r="F88" t="s">
-        <v>176</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3579,10 +3576,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>176</v>
+      </c>
+      <c r="F89" t="s">
         <v>177</v>
-      </c>
-      <c r="F89" t="s">
-        <v>178</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3608,10 +3605,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>178</v>
+      </c>
+      <c r="F90" t="s">
         <v>179</v>
-      </c>
-      <c r="F90" t="s">
-        <v>180</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3637,10 +3634,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>180</v>
+      </c>
+      <c r="F91" t="s">
         <v>181</v>
-      </c>
-      <c r="F91" t="s">
-        <v>182</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3666,10 +3663,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>182</v>
+      </c>
+      <c r="F92" t="s">
         <v>183</v>
-      </c>
-      <c r="F92" t="s">
-        <v>184</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3695,10 +3692,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>184</v>
+      </c>
+      <c r="F93" t="s">
         <v>185</v>
-      </c>
-      <c r="F93" t="s">
-        <v>186</v>
       </c>
       <c r="G93" t="n">
         <v>3</v>
@@ -3724,10 +3721,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>186</v>
+      </c>
+      <c r="F94" t="s">
         <v>187</v>
-      </c>
-      <c r="F94" t="s">
-        <v>188</v>
       </c>
       <c r="G94" t="n">
         <v>2</v>
@@ -3753,10 +3750,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>188</v>
+      </c>
+      <c r="F95" t="s">
         <v>189</v>
-      </c>
-      <c r="F95" t="s">
-        <v>190</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3782,10 +3779,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>190</v>
+      </c>
+      <c r="F96" t="s">
         <v>191</v>
-      </c>
-      <c r="F96" t="s">
-        <v>192</v>
       </c>
       <c r="G96" t="n">
         <v>4</v>
@@ -3811,10 +3808,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>192</v>
+      </c>
+      <c r="F97" t="s">
         <v>193</v>
-      </c>
-      <c r="F97" t="s">
-        <v>194</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -3840,10 +3837,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>194</v>
+      </c>
+      <c r="F98" t="s">
         <v>195</v>
-      </c>
-      <c r="F98" t="s">
-        <v>196</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -3869,10 +3866,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>196</v>
+      </c>
+      <c r="F99" t="s">
         <v>197</v>
-      </c>
-      <c r="F99" t="s">
-        <v>198</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -3898,10 +3895,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>178</v>
+      </c>
+      <c r="F100" t="s">
         <v>179</v>
-      </c>
-      <c r="F100" t="s">
-        <v>180</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -3927,10 +3924,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>198</v>
+      </c>
+      <c r="F101" t="s">
         <v>199</v>
-      </c>
-      <c r="F101" t="s">
-        <v>200</v>
       </c>
       <c r="G101" t="n">
         <v>2</v>
@@ -3956,10 +3953,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>200</v>
+      </c>
+      <c r="F102" t="s">
         <v>201</v>
-      </c>
-      <c r="F102" t="s">
-        <v>202</v>
       </c>
       <c r="G102" t="n">
         <v>2</v>
@@ -3985,10 +3982,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>202</v>
+      </c>
+      <c r="F103" t="s">
         <v>203</v>
-      </c>
-      <c r="F103" t="s">
-        <v>204</v>
       </c>
       <c r="G103" t="n">
         <v>3</v>
@@ -4014,10 +4011,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>204</v>
+      </c>
+      <c r="F104" t="s">
         <v>205</v>
-      </c>
-      <c r="F104" t="s">
-        <v>206</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4043,10 +4040,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>206</v>
+      </c>
+      <c r="F105" t="s">
         <v>207</v>
-      </c>
-      <c r="F105" t="s">
-        <v>208</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4072,10 +4069,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>208</v>
+      </c>
+      <c r="F106" t="s">
         <v>209</v>
-      </c>
-      <c r="F106" t="s">
-        <v>210</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4101,10 +4098,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>210</v>
+      </c>
+      <c r="F107" t="s">
         <v>211</v>
-      </c>
-      <c r="F107" t="s">
-        <v>212</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4130,10 +4127,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>212</v>
+      </c>
+      <c r="F108" t="s">
         <v>213</v>
-      </c>
-      <c r="F108" t="s">
-        <v>214</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
